--- a/Templates/FCCS_cells.xlsx
+++ b/Templates/FCCS_cells.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\PROJECTS\P019_JovE_FCCS\Manuscript\SI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\PROJECTS\P019_JovE_FCCS\Manuscript\Revision\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1812,7 +1812,7 @@
     <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="8" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1994,21 +1994,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2021,6 +2021,39 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="26" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="35" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="34" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="27" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="28" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="29" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2054,37 +2087,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="26" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="17" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="35" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="34" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="27" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="28" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="29" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="18" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4659,24 +4665,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="91" t="s">
+      <c r="B2" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="H2" s="91" t="s">
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="H2" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="91"/>
-      <c r="L2" s="91"/>
-      <c r="M2" s="91"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="89"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="93" t="s">
+      <c r="B3" s="91" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="13">
@@ -4685,10 +4691,10 @@
       <c r="D3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="89" t="s">
+      <c r="E3" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="89"/>
+      <c r="F3" s="90"/>
       <c r="I3" s="11" t="s">
         <v>30</v>
       </c>
@@ -4706,7 +4712,7 @@
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="93"/>
+      <c r="B4" s="91"/>
       <c r="C4" s="3">
         <f>C3*0.000000000001</f>
         <v>4.1399999999999997E-10</v>
@@ -4736,7 +4742,7 @@
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="93" t="s">
+      <c r="B5" s="91" t="s">
         <v>161</v>
       </c>
       <c r="C5" s="13">
@@ -4745,10 +4751,10 @@
       <c r="D5" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="89" t="s">
+      <c r="E5" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="89"/>
+      <c r="F5" s="90"/>
       <c r="H5" s="4">
         <v>2</v>
       </c>
@@ -4771,7 +4777,7 @@
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="93"/>
+      <c r="B6" s="91"/>
       <c r="C6" s="3">
         <f>C5*0.000001</f>
         <v>7.2999999999999999E-5</v>
@@ -4808,10 +4814,10 @@
         <v>9.67</v>
       </c>
       <c r="D7" s="13"/>
-      <c r="E7" s="89" t="s">
+      <c r="E7" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="89"/>
+      <c r="F7" s="90"/>
       <c r="H7" s="4">
         <v>4</v>
       </c>
@@ -4848,7 +4854,7 @@
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="90" t="s">
+      <c r="B10" s="92" t="s">
         <v>159</v>
       </c>
       <c r="C10" s="3">
@@ -4883,7 +4889,7 @@
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="90"/>
+      <c r="B11" s="92"/>
       <c r="C11" s="15">
         <f>C10*1000000</f>
         <v>0.34768951666681008</v>
@@ -4916,7 +4922,7 @@
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="90" t="s">
+      <c r="B12" s="92" t="s">
         <v>158</v>
       </c>
       <c r="C12" s="3">
@@ -4928,7 +4934,7 @@
       </c>
     </row>
     <row r="13" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B13" s="90"/>
+      <c r="B13" s="92"/>
       <c r="C13" s="15">
         <f>C11*C7</f>
         <v>3.3621576261680537</v>
@@ -4936,15 +4942,15 @@
       <c r="D13" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H13" s="91" t="s">
+      <c r="H13" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="I13" s="91"/>
-      <c r="J13" s="91"/>
-      <c r="K13" s="92" t="s">
+      <c r="I13" s="89"/>
+      <c r="J13" s="89"/>
+      <c r="K13" s="93" t="s">
         <v>57</v>
       </c>
-      <c r="L13" s="92"/>
+      <c r="L13" s="93"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="60"/>
@@ -4988,7 +4994,7 @@
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="90" t="s">
+      <c r="B16" s="92" t="s">
         <v>7</v>
       </c>
       <c r="C16" s="3">
@@ -5015,7 +5021,7 @@
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="90"/>
+      <c r="B17" s="92"/>
       <c r="C17" s="15">
         <f>C16/0.000000000000001*1000</f>
         <v>2.2632163503846598</v>
@@ -5119,21 +5125,21 @@
       </c>
     </row>
     <row r="24" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B24" s="91" t="s">
+      <c r="B24" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="91"/>
-      <c r="D24" s="91"/>
-      <c r="E24" s="91"/>
-      <c r="F24" s="91"/>
-      <c r="H24" s="91" t="s">
+      <c r="C24" s="89"/>
+      <c r="D24" s="89"/>
+      <c r="E24" s="89"/>
+      <c r="F24" s="89"/>
+      <c r="H24" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="I24" s="91"/>
-      <c r="J24" s="91"/>
-      <c r="K24" s="91"/>
-      <c r="L24" s="91"/>
-      <c r="M24" s="91"/>
+      <c r="I24" s="89"/>
+      <c r="J24" s="89"/>
+      <c r="K24" s="89"/>
+      <c r="L24" s="89"/>
+      <c r="M24" s="89"/>
     </row>
     <row r="25" spans="2:13" ht="18" x14ac:dyDescent="0.35">
       <c r="I25" s="11" t="s">
@@ -5181,10 +5187,10 @@
       <c r="D27" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E27" s="89" t="s">
+      <c r="E27" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="F27" s="89"/>
+      <c r="F27" s="90"/>
       <c r="H27" s="20" t="s">
         <v>49</v>
       </c>
@@ -5233,7 +5239,7 @@
       </c>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B29" s="90" t="s">
+      <c r="B29" s="92" t="s">
         <v>15</v>
       </c>
       <c r="C29" s="17">
@@ -5261,7 +5267,7 @@
       </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B30" s="90"/>
+      <c r="B30" s="92"/>
       <c r="C30" s="17">
         <f>C29*1000</f>
         <v>1.2253203547995092E-6</v>
@@ -5272,7 +5278,7 @@
       <c r="F30" s="17"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B31" s="90"/>
+      <c r="B31" s="92"/>
       <c r="C31" s="17">
         <f t="shared" ref="C31:C32" si="5">C30*1000</f>
         <v>1.2253203547995092E-3</v>
@@ -5283,7 +5289,7 @@
       <c r="F31" s="17"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B32" s="90"/>
+      <c r="B32" s="92"/>
       <c r="C32" s="7">
         <f t="shared" si="5"/>
         <v>1.2253203547995093</v>
@@ -5295,12 +5301,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B6"/>
     <mergeCell ref="E27:F27"/>
     <mergeCell ref="B29:B32"/>
     <mergeCell ref="H24:M24"/>
@@ -5311,6 +5311,12 @@
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="H13:J13"/>
     <mergeCell ref="K13:L13"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5362,7 +5368,7 @@
       <c r="M2" s="94"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="93" t="s">
+      <c r="B3" s="91" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="13">
@@ -5371,10 +5377,10 @@
       <c r="D3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="89" t="s">
+      <c r="E3" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="89"/>
+      <c r="F3" s="90"/>
       <c r="I3" s="11" t="s">
         <v>62</v>
       </c>
@@ -5392,7 +5398,7 @@
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="93"/>
+      <c r="B4" s="91"/>
       <c r="C4" s="3">
         <f>C3*0.000000000001</f>
         <v>3.4999999999999998E-10</v>
@@ -5422,7 +5428,7 @@
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="93" t="s">
+      <c r="B5" s="91" t="s">
         <v>161</v>
       </c>
       <c r="C5" s="13">
@@ -5431,10 +5437,10 @@
       <c r="D5" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="89" t="s">
+      <c r="E5" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="89"/>
+      <c r="F5" s="90"/>
       <c r="H5" s="4">
         <v>2</v>
       </c>
@@ -5457,7 +5463,7 @@
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="93"/>
+      <c r="B6" s="91"/>
       <c r="C6" s="3">
         <f>C5*0.000001</f>
         <v>6.0999999999999999E-5</v>
@@ -5494,10 +5500,10 @@
         <v>6.25</v>
       </c>
       <c r="D7" s="13"/>
-      <c r="E7" s="89" t="s">
+      <c r="E7" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="89"/>
+      <c r="F7" s="90"/>
       <c r="H7" s="4">
         <v>4</v>
       </c>
@@ -5534,7 +5540,7 @@
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="90" t="s">
+      <c r="B10" s="92" t="s">
         <v>159</v>
       </c>
       <c r="C10" s="3">
@@ -5569,7 +5575,7 @@
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="90"/>
+      <c r="B11" s="92"/>
       <c r="C11" s="15">
         <f>C10*1000000</f>
         <v>0.29223278392404917</v>
@@ -5602,7 +5608,7 @@
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="90" t="s">
+      <c r="B12" s="92" t="s">
         <v>158</v>
       </c>
       <c r="C12" s="3">
@@ -5614,7 +5620,7 @@
       </c>
     </row>
     <row r="13" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B13" s="90"/>
+      <c r="B13" s="92"/>
       <c r="C13" s="15">
         <f>C11*C7</f>
         <v>1.8264548995253074</v>
@@ -5672,7 +5678,7 @@
       <c r="M15" s="31"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="90" t="s">
+      <c r="B16" s="92" t="s">
         <v>7</v>
       </c>
       <c r="C16" s="3">
@@ -5700,7 +5706,7 @@
       <c r="M16" s="31"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="90"/>
+      <c r="B17" s="92"/>
       <c r="C17" s="15">
         <f>C16/0.000000000000001*1000</f>
         <v>0.86854361589885376</v>
@@ -5867,10 +5873,10 @@
       <c r="D27" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E27" s="89" t="s">
+      <c r="E27" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="F27" s="89"/>
+      <c r="F27" s="90"/>
       <c r="H27" s="20" t="s">
         <v>65</v>
       </c>
@@ -5919,7 +5925,7 @@
       </c>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B29" s="90" t="s">
+      <c r="B29" s="92" t="s">
         <v>15</v>
       </c>
       <c r="C29" s="17">
@@ -5947,7 +5953,7 @@
       </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B30" s="90"/>
+      <c r="B30" s="92"/>
       <c r="C30" s="17">
         <f>C29*1000</f>
         <v>3.3840820377337629E-6</v>
@@ -5958,7 +5964,7 @@
       <c r="F30" s="17"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B31" s="90"/>
+      <c r="B31" s="92"/>
       <c r="C31" s="17">
         <f t="shared" ref="C31:C32" si="5">C30*1000</f>
         <v>3.3840820377337628E-3</v>
@@ -5969,7 +5975,7 @@
       <c r="F31" s="17"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B32" s="90"/>
+      <c r="B32" s="92"/>
       <c r="C32" s="7">
         <f t="shared" si="5"/>
         <v>3.3840820377337626</v>
@@ -5981,12 +5987,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="E5:F5"/>
     <mergeCell ref="B24:F24"/>
     <mergeCell ref="E27:F27"/>
     <mergeCell ref="B29:B32"/>
@@ -5996,6 +5996,12 @@
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="H13:K13"/>
     <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="E5:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6010,7 +6016,7 @@
   <dimension ref="B2:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6022,13 +6028,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="119" t="s">
+      <c r="B2" s="98" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
       <c r="I2" s="95" t="s">
         <v>71</v>
       </c>
@@ -6043,7 +6049,7 @@
       <c r="P2" s="96"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B3" s="93" t="s">
+      <c r="B3" s="91" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="22">
@@ -6053,10 +6059,10 @@
       <c r="D3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="89" t="s">
+      <c r="E3" s="90" t="s">
         <v>69</v>
       </c>
-      <c r="F3" s="89"/>
+      <c r="F3" s="90"/>
       <c r="I3" s="13" t="s">
         <v>13</v>
       </c>
@@ -6083,7 +6089,7 @@
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="93"/>
+      <c r="B4" s="91"/>
       <c r="C4" s="3">
         <f>C3*0.000000000001</f>
         <v>6.2338242158327107E-11</v>
@@ -6126,7 +6132,7 @@
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="93" t="s">
+      <c r="B5" s="91" t="s">
         <v>161</v>
       </c>
       <c r="C5" s="13">
@@ -6135,10 +6141,10 @@
       <c r="D5" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="89" t="s">
+      <c r="E5" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="89"/>
+      <c r="F5" s="90"/>
       <c r="H5" s="32">
         <v>3</v>
       </c>
@@ -6158,7 +6164,7 @@
       <c r="P5" s="6"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="93"/>
+      <c r="B6" s="91"/>
       <c r="C6" s="3">
         <f>C5*0.000001</f>
         <v>5.2700000000000002E-4</v>
@@ -6194,10 +6200,10 @@
         <v>5.29</v>
       </c>
       <c r="D7" s="13"/>
-      <c r="E7" s="89" t="s">
+      <c r="E7" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="89"/>
+      <c r="F7" s="90"/>
       <c r="H7" s="32">
         <v>5</v>
       </c>
@@ -6253,7 +6259,7 @@
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="90" t="s">
+      <c r="B10" s="92" t="s">
         <v>159</v>
       </c>
       <c r="C10" s="3">
@@ -6302,7 +6308,7 @@
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="90"/>
+      <c r="B11" s="92"/>
       <c r="C11" s="15">
         <f>C10*1000000</f>
         <v>0.36250381304167484</v>
@@ -6349,7 +6355,7 @@
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B12" s="90" t="s">
+      <c r="B12" s="92" t="s">
         <v>158</v>
       </c>
       <c r="C12" s="3">
@@ -6363,7 +6369,7 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B13" s="90"/>
+      <c r="B13" s="92"/>
       <c r="C13" s="15">
         <f>C11*C7</f>
         <v>1.9176451709904598</v>
@@ -6404,18 +6410,18 @@
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
-      <c r="I15" s="118" t="s">
+      <c r="I15" s="99" t="s">
         <v>76</v>
       </c>
-      <c r="J15" s="118"/>
-      <c r="K15" s="118"/>
-      <c r="L15" s="118"/>
-      <c r="M15" s="118"/>
-      <c r="N15" s="118"/>
-      <c r="O15" s="118"/>
+      <c r="J15" s="99"/>
+      <c r="K15" s="99"/>
+      <c r="L15" s="99"/>
+      <c r="M15" s="99"/>
+      <c r="N15" s="99"/>
+      <c r="O15" s="99"/>
     </row>
     <row r="16" spans="2:16" ht="18" x14ac:dyDescent="0.35">
-      <c r="B16" s="90" t="s">
+      <c r="B16" s="92" t="s">
         <v>7</v>
       </c>
       <c r="C16" s="3">
@@ -6450,7 +6456,7 @@
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="90"/>
+      <c r="B17" s="92"/>
       <c r="C17" s="15">
         <f>C16/0.000000000000001*1000</f>
         <v>1.4031956135858408</v>
@@ -6578,7 +6584,7 @@
   <dimension ref="A2:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6593,46 +6599,46 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="110" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="105" t="s">
+      <c r="A4" s="116" t="s">
         <v>127</v>
       </c>
-      <c r="B4" s="98" t="s">
+      <c r="B4" s="109" t="s">
         <v>132</v>
       </c>
-      <c r="C4" s="98"/>
-      <c r="D4" s="101" t="s">
+      <c r="C4" s="109"/>
+      <c r="D4" s="112" t="s">
         <v>134</v>
       </c>
-      <c r="E4" s="101" t="s">
+      <c r="E4" s="112" t="s">
         <v>135</v>
       </c>
-      <c r="F4" s="103" t="s">
+      <c r="F4" s="114" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="106"/>
+      <c r="A5" s="117"/>
       <c r="B5" s="79" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="79" t="s">
         <v>133</v>
       </c>
-      <c r="D5" s="102"/>
-      <c r="E5" s="102"/>
-      <c r="F5" s="104"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="115"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="68" t="s">
@@ -6679,50 +6685,50 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="100" t="s">
+      <c r="A9" s="111" t="s">
         <v>136</v>
       </c>
-      <c r="B9" s="100"/>
-      <c r="C9" s="100"/>
-      <c r="D9" s="100"/>
-      <c r="E9" s="100"/>
-      <c r="F9" s="100"/>
-      <c r="G9" s="100"/>
+      <c r="B9" s="111"/>
+      <c r="C9" s="111"/>
+      <c r="D9" s="111"/>
+      <c r="E9" s="111"/>
+      <c r="F9" s="111"/>
+      <c r="G9" s="111"/>
     </row>
     <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="105" t="s">
+      <c r="A11" s="116" t="s">
         <v>127</v>
       </c>
-      <c r="B11" s="98" t="s">
+      <c r="B11" s="109" t="s">
         <v>132</v>
       </c>
-      <c r="C11" s="98"/>
-      <c r="D11" s="101" t="s">
+      <c r="C11" s="109"/>
+      <c r="D11" s="112" t="s">
         <v>140</v>
       </c>
-      <c r="E11" s="101" t="s">
+      <c r="E11" s="112" t="s">
         <v>141</v>
       </c>
-      <c r="F11" s="101" t="s">
+      <c r="F11" s="112" t="s">
         <v>156</v>
       </c>
-      <c r="G11" s="107" t="s">
+      <c r="G11" s="118" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="106"/>
+      <c r="A12" s="117"/>
       <c r="B12" s="79" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="79" t="s">
         <v>133</v>
       </c>
-      <c r="D12" s="102"/>
-      <c r="E12" s="102"/>
-      <c r="F12" s="102"/>
-      <c r="G12" s="108"/>
+      <c r="D12" s="113"/>
+      <c r="E12" s="113"/>
+      <c r="F12" s="113"/>
+      <c r="G12" s="119"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="68" t="s">
@@ -6741,8 +6747,8 @@
         <f>(C13/Green!C16/1000/6.02E+23)*1000*1000*1000</f>
         <v>3.5608599637090452</v>
       </c>
-      <c r="F13" s="115"/>
-      <c r="G13" s="115"/>
+      <c r="F13" s="106"/>
+      <c r="G13" s="106"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="69" t="s">
@@ -6761,16 +6767,16 @@
         <f>(C14/Red!C16/1000/6.02E+23)*1000*1000*1000</f>
         <v>2.7776740884495363</v>
       </c>
-      <c r="F14" s="115"/>
-      <c r="G14" s="115"/>
+      <c r="F14" s="106"/>
+      <c r="G14" s="106"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="116" t="s">
+      <c r="A15" s="107" t="s">
         <v>139</v>
       </c>
-      <c r="B15" s="115"/>
-      <c r="C15" s="115"/>
-      <c r="D15" s="117">
+      <c r="B15" s="106"/>
+      <c r="C15" s="106"/>
+      <c r="D15" s="108">
         <v>91</v>
       </c>
       <c r="E15" s="65">
@@ -6781,16 +6787,16 @@
         <f>D13/D15</f>
         <v>8.1428571428571433E-2</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="120">
         <f>F15/DNA!L17</f>
         <v>0.1458697764820214</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="116"/>
-      <c r="B16" s="115"/>
-      <c r="C16" s="115"/>
-      <c r="D16" s="117"/>
+      <c r="A16" s="107"/>
+      <c r="B16" s="106"/>
+      <c r="C16" s="106"/>
+      <c r="D16" s="108"/>
       <c r="E16" s="65">
         <f>G16*E14</f>
         <v>0.72222541004980012</v>
@@ -6799,17 +6805,17 @@
         <f>D14/D15</f>
         <v>0.13329670329670332</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="121">
         <f>F16/DNA!N17</f>
         <v>0.26001085334418678</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="113" t="s">
+      <c r="A19" s="104" t="s">
         <v>145</v>
       </c>
-      <c r="B19" s="114"/>
+      <c r="B19" s="105"/>
       <c r="C19" s="72"/>
       <c r="D19" s="72"/>
       <c r="E19" s="72"/>
@@ -6826,10 +6832,10 @@
       <c r="G20" s="76"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="111" t="s">
+      <c r="A21" s="102" t="s">
         <v>162</v>
       </c>
-      <c r="B21" s="112"/>
+      <c r="B21" s="103"/>
       <c r="C21" s="80"/>
       <c r="D21" s="80"/>
       <c r="E21" s="80"/>
@@ -6895,17 +6901,17 @@
       <c r="G25" s="81"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="111" t="s">
+      <c r="A26" s="102" t="s">
         <v>146</v>
       </c>
-      <c r="B26" s="112"/>
+      <c r="B26" s="103"/>
       <c r="C26" s="80"/>
       <c r="D26" s="80"/>
       <c r="E26" s="80"/>
-      <c r="F26" s="109" t="s">
+      <c r="F26" s="100" t="s">
         <v>147</v>
       </c>
-      <c r="G26" s="110"/>
+      <c r="G26" s="101"/>
     </row>
     <row r="27" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A27" s="82" t="s">
@@ -6968,16 +6974,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="B11:C11"/>
@@ -6991,6 +6987,16 @@
     <mergeCell ref="G11:G12"/>
     <mergeCell ref="E11:E12"/>
     <mergeCell ref="F11:F12"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
